--- a/Assets/06.Table/SecondAttend.xlsx
+++ b/Assets/06.Table/SecondAttend.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02D76E8C-E6ED-4424-8DB1-66E6230466FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65048B0B-CAED-4DF3-9644-3A4462201585}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28770" yWindow="0" windowWidth="28830" windowHeight="15600" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="SecondAttend" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="35">
   <si>
     <t>Id</t>
   </si>
@@ -154,15 +154,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>9042,9000,9039,14,30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>222,2,2,2000,200000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2222,2,2,2000,200000</t>
+    <t>8802,9039,14,30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>200,1,2000,200000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8802,9041,14,30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>400,2,4000,400000</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -552,7 +556,7 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -600,7 +604,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>32</v>
@@ -617,7 +621,7 @@
         <v>31</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -628,7 +632,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>32</v>
@@ -656,7 +660,7 @@
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>32</v>
@@ -673,7 +677,7 @@
         <v>31</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -684,7 +688,7 @@
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>32</v>
@@ -712,7 +716,7 @@
         <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>32</v>
@@ -740,7 +744,7 @@
         <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>32</v>
@@ -768,10 +772,10 @@
         <v>14</v>
       </c>
       <c r="C15" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/SecondAttend.xlsx
+++ b/Assets/06.Table/SecondAttend.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65048B0B-CAED-4DF3-9644-3A4462201585}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63A09ABF-21C2-440D-A8AF-2D085AD0C61C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="61">
   <si>
     <t>Id</t>
   </si>
@@ -154,19 +154,116 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>8802,9039,14,30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>200,1,2000,200000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8802,9041,14,30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>400,2,4000,400000</t>
+    <t>신년 출석부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>만능소탕권</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>초월석 소탕권</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>태극 영약</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내면 세계 입장권</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도술꽃 소탕권</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>요도 해방서</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여우불씨 소탕권</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수호환 소탕권</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>day8</t>
+  </si>
+  <si>
+    <t>day9</t>
+  </si>
+  <si>
+    <t>day10</t>
+  </si>
+  <si>
+    <t>day11</t>
+  </si>
+  <si>
+    <t>day12</t>
+  </si>
+  <si>
+    <t>day13</t>
+  </si>
+  <si>
+    <t>day14</t>
+  </si>
+  <si>
+    <t>검은 구미호 소탕권</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9000,9039,9041,9053</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9000,9039,9041,9050</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9000,9039,9041,9044</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9000,9039,9041,9033</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9000,9039,9041,9028</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9000,9039,9041,9027</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9000,9039,9041,9017</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,1,1,2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,1,1,5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,1,1,20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,1,1,30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,1,1,50</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -178,7 +275,7 @@
     <numFmt numFmtId="176" formatCode="#,##0_);[Red]\(#,##0\)"/>
     <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -194,8 +291,17 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -205,6 +311,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -223,7 +341,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -237,6 +355,30 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -556,14 +698,14 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17.125" customWidth="1"/>
     <col min="2" max="2" width="24.75" customWidth="1"/>
-    <col min="3" max="3" width="21.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.125" style="11" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="52.25" style="4" customWidth="1"/>
     <col min="6" max="6" width="13.375" bestFit="1" customWidth="1"/>
   </cols>
@@ -575,7 +717,7 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="11" t="s">
         <v>9</v>
       </c>
       <c r="D1" s="4" t="s">
@@ -589,11 +731,11 @@
       <c r="B2">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
-        <v>31</v>
+      <c r="C2" s="12" t="s">
+        <v>49</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>32</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -603,11 +745,11 @@
       <c r="B3">
         <v>2</v>
       </c>
-      <c r="C3" t="s">
-        <v>33</v>
+      <c r="C3" s="12" t="s">
+        <v>50</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>32</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -617,11 +759,11 @@
       <c r="B4">
         <v>3</v>
       </c>
-      <c r="C4" t="s">
-        <v>31</v>
+      <c r="C4" s="12" t="s">
+        <v>51</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>34</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -631,11 +773,11 @@
       <c r="B5">
         <v>4</v>
       </c>
-      <c r="C5" t="s">
-        <v>33</v>
+      <c r="C5" s="12" t="s">
+        <v>52</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>32</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -645,11 +787,11 @@
       <c r="B6">
         <v>5</v>
       </c>
-      <c r="C6" t="s">
-        <v>31</v>
+      <c r="C6" s="12" t="s">
+        <v>53</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>32</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -659,11 +801,11 @@
       <c r="B7">
         <v>6</v>
       </c>
-      <c r="C7" t="s">
-        <v>33</v>
+      <c r="C7" s="12" t="s">
+        <v>54</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>32</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -673,11 +815,11 @@
       <c r="B8">
         <v>7</v>
       </c>
-      <c r="C8" t="s">
-        <v>31</v>
+      <c r="C8" s="12" t="s">
+        <v>55</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>34</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -687,11 +829,11 @@
       <c r="B9">
         <v>8</v>
       </c>
-      <c r="C9" t="s">
-        <v>33</v>
+      <c r="C9" s="12" t="s">
+        <v>49</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>32</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -701,11 +843,11 @@
       <c r="B10">
         <v>9</v>
       </c>
-      <c r="C10" t="s">
-        <v>31</v>
+      <c r="C10" s="12" t="s">
+        <v>50</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>32</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -715,11 +857,11 @@
       <c r="B11">
         <v>10</v>
       </c>
-      <c r="C11" t="s">
-        <v>33</v>
+      <c r="C11" s="12" t="s">
+        <v>51</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>32</v>
+        <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -729,11 +871,11 @@
       <c r="B12">
         <v>11</v>
       </c>
-      <c r="C12" t="s">
-        <v>31</v>
+      <c r="C12" s="12" t="s">
+        <v>52</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>32</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -743,11 +885,11 @@
       <c r="B13">
         <v>12</v>
       </c>
-      <c r="C13" t="s">
-        <v>33</v>
+      <c r="C13" s="12" t="s">
+        <v>53</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>32</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -757,11 +899,11 @@
       <c r="B14">
         <v>13</v>
       </c>
-      <c r="C14" t="s">
-        <v>31</v>
+      <c r="C14" s="12" t="s">
+        <v>54</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>32</v>
+        <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
@@ -771,11 +913,11 @@
       <c r="B15">
         <v>14</v>
       </c>
-      <c r="C15" t="s">
-        <v>33</v>
+      <c r="C15" s="12" t="s">
+        <v>55</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>34</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -787,10 +929,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7ABB86A-159A-4AA9-8E2A-71611A8904B1}">
-  <dimension ref="B3:N21"/>
+  <dimension ref="B3:S41"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -799,11 +941,8 @@
     <col min="3" max="3" width="22.5" customWidth="1"/>
     <col min="4" max="4" width="11.375" customWidth="1"/>
     <col min="5" max="5" width="13.75" customWidth="1"/>
-    <col min="6" max="6" width="21.75" style="1" customWidth="1"/>
-    <col min="7" max="7" width="17.375" customWidth="1"/>
-    <col min="8" max="8" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="9" max="13" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.75" customWidth="1"/>
+    <col min="6" max="6" width="10.125" style="1" customWidth="1"/>
+    <col min="7" max="19" width="10.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:14" x14ac:dyDescent="0.3">
@@ -1241,7 +1380,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>23</v>
       </c>
@@ -1256,7 +1395,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>27</v>
       </c>
@@ -1271,7 +1410,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
         <v>28</v>
       </c>
@@ -1286,7 +1425,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
         <v>29</v>
       </c>
@@ -1301,7 +1440,7 @@
         <v>28000</v>
       </c>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>30</v>
       </c>
@@ -1315,6 +1454,365 @@
         <f t="shared" si="9"/>
         <v>2800000</v>
       </c>
+    </row>
+    <row r="25" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B25" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="27" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B27" t="s">
+        <v>32</v>
+      </c>
+      <c r="C27" t="s">
+        <v>11</v>
+      </c>
+      <c r="D27" t="s">
+        <v>13</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H27" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I27" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="J27" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="K27" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="L27" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="M27" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="N27" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="O27" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="P27" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q27" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="R27" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="S27" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="28" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B28" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C28">
+        <v>9000</v>
+      </c>
+      <c r="D28" s="1">
+        <f>SUM(F28:S28)</f>
+        <v>14</v>
+      </c>
+      <c r="F28" s="7">
+        <v>1</v>
+      </c>
+      <c r="G28" s="8">
+        <v>1</v>
+      </c>
+      <c r="H28" s="8">
+        <v>1</v>
+      </c>
+      <c r="I28" s="8">
+        <v>1</v>
+      </c>
+      <c r="J28" s="8">
+        <v>1</v>
+      </c>
+      <c r="K28" s="8">
+        <v>1</v>
+      </c>
+      <c r="L28" s="8">
+        <v>1</v>
+      </c>
+      <c r="M28" s="8">
+        <v>1</v>
+      </c>
+      <c r="N28" s="8">
+        <v>1</v>
+      </c>
+      <c r="O28" s="8">
+        <v>1</v>
+      </c>
+      <c r="P28" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q28" s="8">
+        <v>1</v>
+      </c>
+      <c r="R28" s="8">
+        <v>1</v>
+      </c>
+      <c r="S28" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B29" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C29">
+        <v>9039</v>
+      </c>
+      <c r="D29" s="1">
+        <f>SUM(F29:S29)</f>
+        <v>14</v>
+      </c>
+      <c r="F29" s="7">
+        <v>1</v>
+      </c>
+      <c r="G29" s="8">
+        <v>1</v>
+      </c>
+      <c r="H29" s="8">
+        <v>1</v>
+      </c>
+      <c r="I29" s="8">
+        <v>1</v>
+      </c>
+      <c r="J29" s="8">
+        <v>1</v>
+      </c>
+      <c r="K29" s="8">
+        <v>1</v>
+      </c>
+      <c r="L29" s="8">
+        <v>1</v>
+      </c>
+      <c r="M29" s="8">
+        <v>1</v>
+      </c>
+      <c r="N29" s="8">
+        <v>1</v>
+      </c>
+      <c r="O29" s="8">
+        <v>1</v>
+      </c>
+      <c r="P29" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q29" s="8">
+        <v>1</v>
+      </c>
+      <c r="R29" s="8">
+        <v>1</v>
+      </c>
+      <c r="S29" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B30" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C30">
+        <v>9041</v>
+      </c>
+      <c r="D30" s="1">
+        <f>SUM(F30:S30)</f>
+        <v>14</v>
+      </c>
+      <c r="F30" s="7">
+        <v>1</v>
+      </c>
+      <c r="G30" s="8">
+        <v>1</v>
+      </c>
+      <c r="H30" s="8">
+        <v>1</v>
+      </c>
+      <c r="I30" s="8">
+        <v>1</v>
+      </c>
+      <c r="J30" s="8">
+        <v>1</v>
+      </c>
+      <c r="K30" s="8">
+        <v>1</v>
+      </c>
+      <c r="L30" s="8">
+        <v>1</v>
+      </c>
+      <c r="M30" s="8">
+        <v>1</v>
+      </c>
+      <c r="N30" s="8">
+        <v>1</v>
+      </c>
+      <c r="O30" s="8">
+        <v>1</v>
+      </c>
+      <c r="P30" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q30" s="8">
+        <v>1</v>
+      </c>
+      <c r="R30" s="8">
+        <v>1</v>
+      </c>
+      <c r="S30" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B31" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C31">
+        <v>9053</v>
+      </c>
+      <c r="D31" s="1">
+        <f>SUM(F31:S31)</f>
+        <v>4</v>
+      </c>
+      <c r="F31" s="9">
+        <v>2</v>
+      </c>
+      <c r="L31" s="10"/>
+      <c r="M31" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B32" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C32">
+        <v>9050</v>
+      </c>
+      <c r="D32" s="1">
+        <f>SUM(F32:S32)</f>
+        <v>10</v>
+      </c>
+      <c r="G32" s="9">
+        <v>5</v>
+      </c>
+      <c r="N32" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B33" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C33">
+        <v>9044</v>
+      </c>
+      <c r="D33" s="1">
+        <f>SUM(F33:S33)</f>
+        <v>40</v>
+      </c>
+      <c r="H33" s="9">
+        <v>20</v>
+      </c>
+      <c r="O33" s="9">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="34" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B34" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C34">
+        <v>9033</v>
+      </c>
+      <c r="D34" s="1">
+        <f>SUM(F34:S34)</f>
+        <v>40</v>
+      </c>
+      <c r="I34" s="9">
+        <v>20</v>
+      </c>
+      <c r="P34" s="9">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B35" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C35">
+        <v>9028</v>
+      </c>
+      <c r="D35" s="1">
+        <f>SUM(F35:S35)</f>
+        <v>100</v>
+      </c>
+      <c r="J35" s="9">
+        <v>50</v>
+      </c>
+      <c r="Q35" s="9">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="36" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B36" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C36">
+        <v>9027</v>
+      </c>
+      <c r="D36" s="1">
+        <f>SUM(F36:S36)</f>
+        <v>60</v>
+      </c>
+      <c r="K36" s="9">
+        <v>30</v>
+      </c>
+      <c r="R36" s="9">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="37" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B37" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C37">
+        <v>9017</v>
+      </c>
+      <c r="D37" s="1">
+        <f>SUM(F37:S37)</f>
+        <v>60</v>
+      </c>
+      <c r="L37" s="9">
+        <v>30</v>
+      </c>
+      <c r="S37" s="9">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="38" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B38" s="5"/>
+    </row>
+    <row r="39" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B39" s="5"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B40" s="5"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B41" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Assets/06.Table/SecondAttend.xlsx
+++ b/Assets/06.Table/SecondAttend.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63A09ABF-21C2-440D-A8AF-2D085AD0C61C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1B30AAF-312B-4D2E-82C0-D2CAFC6E122D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="SecondAttend" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="85">
   <si>
     <t>Id</t>
   </si>
@@ -219,51 +219,142 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>9000,9039,9041,9053</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9000,9039,9041,9050</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9000,9039,9041,9044</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9000,9039,9041,9033</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9000,9039,9041,9028</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9000,9039,9041,9027</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9000,9039,9041,9017</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,1,1,2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,1,1,5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,1,1,20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,1,1,30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,1,1,50</t>
+    <t>3주년 전야제 출첵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수호환</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여우불씨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>영혼석</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도술꽃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>심득 조각</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>요석</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>태극 조각</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사신수 기운</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제자 수련서</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>day15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9000,9039,9010</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9000,9039,9016</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9000,9039,9026</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9000,9039,9028</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9000,9039,9032</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9000,9039,9043</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9000,9039,9048</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9000,9039,9049</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9000,9039,9062</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9000,9039,9064</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,5,50000000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>day16</t>
+  </si>
+  <si>
+    <t>day17</t>
+  </si>
+  <si>
+    <t>day18</t>
+  </si>
+  <si>
+    <t>day19</t>
+  </si>
+  <si>
+    <t>day20</t>
+  </si>
+  <si>
+    <t>1,5,2500000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,5,5000000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,5,500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,5,500000000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,5,250000000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,10,500000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,5,1500000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>혈의 기운</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9000,9039,9065</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -301,7 +392,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -326,6 +417,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -341,7 +438,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -372,13 +469,22 @@
     <xf numFmtId="176" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -399,9 +505,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 테마">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -439,7 +545,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -545,7 +651,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -687,7 +793,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -695,19 +801,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17.125" customWidth="1"/>
     <col min="2" max="2" width="24.75" customWidth="1"/>
-    <col min="3" max="3" width="21.125" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.125" style="10" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="52.25" style="4" customWidth="1"/>
-    <col min="6" max="6" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
@@ -717,7 +823,7 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="10" t="s">
         <v>9</v>
       </c>
       <c r="D1" s="4" t="s">
@@ -731,11 +837,11 @@
       <c r="B2">
         <v>1</v>
       </c>
-      <c r="C2" s="12" t="s">
-        <v>49</v>
+      <c r="C2" s="11" t="s">
+        <v>60</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>56</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -745,11 +851,11 @@
       <c r="B3">
         <v>2</v>
       </c>
-      <c r="C3" s="12" t="s">
-        <v>50</v>
+      <c r="C3" s="11" t="s">
+        <v>61</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>57</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -759,11 +865,11 @@
       <c r="B4">
         <v>3</v>
       </c>
-      <c r="C4" s="12" t="s">
-        <v>51</v>
+      <c r="C4" s="11" t="s">
+        <v>69</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>58</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -773,11 +879,11 @@
       <c r="B5">
         <v>4</v>
       </c>
-      <c r="C5" s="12" t="s">
-        <v>52</v>
+      <c r="C5" s="11" t="s">
+        <v>63</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>58</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -787,11 +893,11 @@
       <c r="B6">
         <v>5</v>
       </c>
-      <c r="C6" s="12" t="s">
-        <v>53</v>
+      <c r="C6" s="11" t="s">
+        <v>64</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>60</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -801,11 +907,11 @@
       <c r="B7">
         <v>6</v>
       </c>
-      <c r="C7" s="12" t="s">
-        <v>54</v>
+      <c r="C7" s="11" t="s">
+        <v>65</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>59</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -815,11 +921,11 @@
       <c r="B8">
         <v>7</v>
       </c>
-      <c r="C8" s="12" t="s">
-        <v>55</v>
+      <c r="C8" s="11" t="s">
+        <v>84</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>59</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -829,11 +935,11 @@
       <c r="B9">
         <v>8</v>
       </c>
-      <c r="C9" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>56</v>
+      <c r="C9" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -843,11 +949,11 @@
       <c r="B10">
         <v>9</v>
       </c>
-      <c r="C10" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>57</v>
+      <c r="C10" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -857,11 +963,11 @@
       <c r="B11">
         <v>10</v>
       </c>
-      <c r="C11" s="12" t="s">
-        <v>51</v>
+      <c r="C11" s="11" t="s">
+        <v>62</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>58</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -871,11 +977,11 @@
       <c r="B12">
         <v>11</v>
       </c>
-      <c r="C12" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>58</v>
+      <c r="C12" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -885,11 +991,11 @@
       <c r="B13">
         <v>12</v>
       </c>
-      <c r="C13" s="12" t="s">
-        <v>53</v>
+      <c r="C13" s="11" t="s">
+        <v>61</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>60</v>
+        <v>76</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -899,11 +1005,11 @@
       <c r="B14">
         <v>13</v>
       </c>
-      <c r="C14" s="12" t="s">
-        <v>54</v>
+      <c r="C14" s="11" t="s">
+        <v>62</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>59</v>
+        <v>77</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
@@ -913,11 +1019,95 @@
       <c r="B15">
         <v>14</v>
       </c>
-      <c r="C15" s="12" t="s">
-        <v>55</v>
+      <c r="C15" s="11" t="s">
+        <v>69</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>59</v>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>15</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>16</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="D17" s="15" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>17</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="D18" s="15" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>18</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="D19" s="15" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>19</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>20</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -929,20 +1119,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7ABB86A-159A-4AA9-8E2A-71611A8904B1}">
-  <dimension ref="B3:S41"/>
+  <dimension ref="B3:Z54"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="18.125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22.5" customWidth="1"/>
-    <col min="4" max="4" width="11.375" customWidth="1"/>
+    <col min="4" max="4" width="14.5" customWidth="1"/>
     <col min="5" max="5" width="13.75" customWidth="1"/>
     <col min="6" max="6" width="10.125" style="1" customWidth="1"/>
-    <col min="7" max="19" width="10.125" customWidth="1"/>
+    <col min="7" max="11" width="10.125" customWidth="1"/>
+    <col min="12" max="12" width="11.875" customWidth="1"/>
+    <col min="13" max="19" width="10.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:14" x14ac:dyDescent="0.3">
@@ -1521,7 +1713,7 @@
         <v>9000</v>
       </c>
       <c r="D28" s="1">
-        <f>SUM(F28:S28)</f>
+        <f t="shared" ref="D28:D37" si="10">SUM(F28:S28)</f>
         <v>14</v>
       </c>
       <c r="F28" s="7">
@@ -1575,7 +1767,7 @@
         <v>9039</v>
       </c>
       <c r="D29" s="1">
-        <f>SUM(F29:S29)</f>
+        <f t="shared" si="10"/>
         <v>14</v>
       </c>
       <c r="F29" s="7">
@@ -1629,7 +1821,7 @@
         <v>9041</v>
       </c>
       <c r="D30" s="1">
-        <f>SUM(F30:S30)</f>
+        <f t="shared" si="10"/>
         <v>14</v>
       </c>
       <c r="F30" s="7">
@@ -1683,13 +1875,13 @@
         <v>9053</v>
       </c>
       <c r="D31" s="1">
-        <f>SUM(F31:S31)</f>
+        <f t="shared" si="10"/>
         <v>4</v>
       </c>
       <c r="F31" s="9">
         <v>2</v>
       </c>
-      <c r="L31" s="10"/>
+      <c r="L31" s="1"/>
       <c r="M31" s="9">
         <v>2</v>
       </c>
@@ -1702,7 +1894,7 @@
         <v>9050</v>
       </c>
       <c r="D32" s="1">
-        <f>SUM(F32:S32)</f>
+        <f t="shared" si="10"/>
         <v>10</v>
       </c>
       <c r="G32" s="9">
@@ -1712,7 +1904,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B33" s="5" t="s">
         <v>36</v>
       </c>
@@ -1720,7 +1912,7 @@
         <v>9044</v>
       </c>
       <c r="D33" s="1">
-        <f>SUM(F33:S33)</f>
+        <f t="shared" si="10"/>
         <v>40</v>
       </c>
       <c r="H33" s="9">
@@ -1730,7 +1922,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B34" s="5" t="s">
         <v>37</v>
       </c>
@@ -1738,7 +1930,7 @@
         <v>9033</v>
       </c>
       <c r="D34" s="1">
-        <f>SUM(F34:S34)</f>
+        <f t="shared" si="10"/>
         <v>40</v>
       </c>
       <c r="I34" s="9">
@@ -1748,7 +1940,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B35" s="5" t="s">
         <v>38</v>
       </c>
@@ -1756,7 +1948,7 @@
         <v>9028</v>
       </c>
       <c r="D35" s="1">
-        <f>SUM(F35:S35)</f>
+        <f t="shared" si="10"/>
         <v>100</v>
       </c>
       <c r="J35" s="9">
@@ -1766,7 +1958,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="36" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B36" s="5" t="s">
         <v>39</v>
       </c>
@@ -1774,7 +1966,7 @@
         <v>9027</v>
       </c>
       <c r="D36" s="1">
-        <f>SUM(F36:S36)</f>
+        <f t="shared" si="10"/>
         <v>60</v>
       </c>
       <c r="K36" s="9">
@@ -1784,7 +1976,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B37" s="5" t="s">
         <v>40</v>
       </c>
@@ -1792,7 +1984,7 @@
         <v>9017</v>
       </c>
       <c r="D37" s="1">
-        <f>SUM(F37:S37)</f>
+        <f t="shared" si="10"/>
         <v>60</v>
       </c>
       <c r="L37" s="9">
@@ -1802,20 +1994,618 @@
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B38" s="5"/>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B39" s="5"/>
     </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B40" s="5"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B41" s="5"/>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="B40" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="B41" t="s">
+        <v>32</v>
+      </c>
+      <c r="C41" t="s">
+        <v>11</v>
+      </c>
+      <c r="D41" t="s">
+        <v>13</v>
+      </c>
+      <c r="F41" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G41" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H41" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="I41" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="J41" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="K41" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="L41" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="M41" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="N41" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="O41" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="P41" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q41" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="R41" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="S41" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="T41" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="U41" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="V41" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="W41" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="X41" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y41" s="14" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="42" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="B42" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C42">
+        <v>9000</v>
+      </c>
+      <c r="D42" s="1">
+        <f>SUM(F42:Y42)</f>
+        <v>24</v>
+      </c>
+      <c r="F42" s="12">
+        <v>1</v>
+      </c>
+      <c r="G42" s="12">
+        <v>1</v>
+      </c>
+      <c r="H42" s="12">
+        <v>2</v>
+      </c>
+      <c r="I42" s="12">
+        <v>1</v>
+      </c>
+      <c r="J42" s="12">
+        <v>1</v>
+      </c>
+      <c r="K42" s="12">
+        <v>1</v>
+      </c>
+      <c r="L42" s="12">
+        <v>2</v>
+      </c>
+      <c r="M42" s="12">
+        <v>1</v>
+      </c>
+      <c r="N42" s="12">
+        <v>1</v>
+      </c>
+      <c r="O42" s="12">
+        <v>1</v>
+      </c>
+      <c r="P42" s="12">
+        <v>1</v>
+      </c>
+      <c r="Q42" s="12">
+        <v>1</v>
+      </c>
+      <c r="R42" s="12">
+        <v>1</v>
+      </c>
+      <c r="S42" s="12">
+        <v>2</v>
+      </c>
+      <c r="T42" s="12">
+        <v>1</v>
+      </c>
+      <c r="U42" s="12">
+        <v>1</v>
+      </c>
+      <c r="V42" s="12">
+        <v>1</v>
+      </c>
+      <c r="W42" s="12">
+        <v>1</v>
+      </c>
+      <c r="X42" s="12">
+        <v>1</v>
+      </c>
+      <c r="Y42" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="B43" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C43">
+        <v>9039</v>
+      </c>
+      <c r="D43" s="1">
+        <f>SUM(F43:Y43)</f>
+        <v>120</v>
+      </c>
+      <c r="F43" s="12">
+        <v>5</v>
+      </c>
+      <c r="G43" s="12">
+        <v>5</v>
+      </c>
+      <c r="H43" s="12">
+        <v>10</v>
+      </c>
+      <c r="I43" s="12">
+        <v>5</v>
+      </c>
+      <c r="J43" s="12">
+        <v>5</v>
+      </c>
+      <c r="K43" s="12">
+        <v>5</v>
+      </c>
+      <c r="L43" s="12">
+        <v>10</v>
+      </c>
+      <c r="M43" s="12">
+        <v>5</v>
+      </c>
+      <c r="N43" s="12">
+        <v>5</v>
+      </c>
+      <c r="O43" s="12">
+        <v>5</v>
+      </c>
+      <c r="P43" s="12">
+        <v>5</v>
+      </c>
+      <c r="Q43" s="12">
+        <v>5</v>
+      </c>
+      <c r="R43" s="12">
+        <v>5</v>
+      </c>
+      <c r="S43" s="12">
+        <v>10</v>
+      </c>
+      <c r="T43" s="12">
+        <v>5</v>
+      </c>
+      <c r="U43" s="12">
+        <v>5</v>
+      </c>
+      <c r="V43" s="12">
+        <v>5</v>
+      </c>
+      <c r="W43" s="12">
+        <v>5</v>
+      </c>
+      <c r="X43" s="12">
+        <v>5</v>
+      </c>
+      <c r="Y43" s="12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="B44" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C44">
+        <v>9010</v>
+      </c>
+      <c r="D44" s="1">
+        <f t="shared" ref="D44:D54" si="11">SUM(F44:Y44)</f>
+        <v>50000000</v>
+      </c>
+      <c r="F44" s="13">
+        <v>50000000</v>
+      </c>
+      <c r="G44" s="13"/>
+      <c r="H44" s="13"/>
+      <c r="I44" s="13"/>
+      <c r="J44" s="13"/>
+      <c r="K44" s="13"/>
+      <c r="L44" s="13"/>
+      <c r="M44" s="13"/>
+      <c r="N44" s="13"/>
+      <c r="O44" s="13"/>
+      <c r="P44" s="13"/>
+      <c r="Q44" s="13"/>
+      <c r="R44" s="13"/>
+      <c r="S44" s="13"/>
+    </row>
+    <row r="45" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="B45" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C45">
+        <v>9016</v>
+      </c>
+      <c r="D45" s="1">
+        <f t="shared" si="11"/>
+        <v>500000</v>
+      </c>
+      <c r="F45" s="13"/>
+      <c r="G45" s="13">
+        <v>250000</v>
+      </c>
+      <c r="H45" s="13"/>
+      <c r="I45" s="13"/>
+      <c r="J45" s="13"/>
+      <c r="K45" s="13"/>
+      <c r="L45" s="13"/>
+      <c r="M45" s="13"/>
+      <c r="N45" s="13"/>
+      <c r="O45" s="13"/>
+      <c r="P45" s="13"/>
+      <c r="Q45" s="13">
+        <v>250000</v>
+      </c>
+      <c r="R45" s="13"/>
+      <c r="S45" s="13"/>
+      <c r="T45" s="13"/>
+      <c r="U45" s="13"/>
+      <c r="V45" s="13"/>
+      <c r="W45" s="13"/>
+      <c r="X45" s="13"/>
+      <c r="Y45" s="13"/>
+      <c r="Z45" s="13"/>
+    </row>
+    <row r="46" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="B46" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C46">
+        <v>9026</v>
+      </c>
+      <c r="D46" s="1">
+        <f t="shared" si="11"/>
+        <v>10000000</v>
+      </c>
+      <c r="F46" s="13"/>
+      <c r="G46" s="13"/>
+      <c r="I46" s="13"/>
+      <c r="J46" s="13"/>
+      <c r="K46" s="13"/>
+      <c r="L46" s="13"/>
+      <c r="M46" s="13"/>
+      <c r="N46" s="13"/>
+      <c r="O46" s="13">
+        <v>5000000</v>
+      </c>
+      <c r="P46" s="13"/>
+      <c r="Q46" s="13"/>
+      <c r="R46" s="13">
+        <v>5000000</v>
+      </c>
+      <c r="S46" s="13"/>
+      <c r="T46" s="13"/>
+      <c r="U46" s="13"/>
+      <c r="V46" s="13"/>
+      <c r="W46" s="13"/>
+      <c r="X46" s="13"/>
+      <c r="Y46" s="13"/>
+      <c r="Z46" s="13"/>
+    </row>
+    <row r="47" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="B47" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C47">
+        <v>9028</v>
+      </c>
+      <c r="D47" s="1">
+        <f t="shared" si="11"/>
+        <v>500</v>
+      </c>
+      <c r="F47" s="13"/>
+      <c r="G47" s="13"/>
+      <c r="H47" s="13"/>
+      <c r="I47" s="13">
+        <v>500</v>
+      </c>
+      <c r="J47" s="13"/>
+      <c r="K47" s="13"/>
+      <c r="L47" s="13"/>
+      <c r="M47" s="13"/>
+      <c r="N47" s="13"/>
+      <c r="O47" s="13"/>
+      <c r="P47" s="13"/>
+      <c r="Q47" s="13"/>
+      <c r="R47" s="13"/>
+      <c r="S47" s="13"/>
+      <c r="T47" s="13"/>
+      <c r="U47" s="13"/>
+      <c r="V47" s="13"/>
+      <c r="W47" s="13"/>
+      <c r="X47" s="13"/>
+      <c r="Y47" s="13"/>
+      <c r="Z47" s="13"/>
+    </row>
+    <row r="48" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="B48" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C48">
+        <v>9032</v>
+      </c>
+      <c r="D48" s="1">
+        <f t="shared" si="11"/>
+        <v>1000000000</v>
+      </c>
+      <c r="F48" s="13"/>
+      <c r="G48" s="13"/>
+      <c r="H48" s="13"/>
+      <c r="I48" s="13"/>
+      <c r="J48" s="13">
+        <v>500000000</v>
+      </c>
+      <c r="K48" s="13"/>
+      <c r="L48" s="13"/>
+      <c r="M48" s="13"/>
+      <c r="N48" s="13"/>
+      <c r="O48" s="13"/>
+      <c r="P48" s="13"/>
+      <c r="Q48" s="13"/>
+      <c r="R48" s="13"/>
+      <c r="T48" s="13"/>
+      <c r="U48" s="13"/>
+      <c r="V48" s="13"/>
+      <c r="W48" s="13"/>
+      <c r="X48" s="13">
+        <v>500000000</v>
+      </c>
+      <c r="Y48" s="13"/>
+    </row>
+    <row r="49" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B49" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C49">
+        <v>9043</v>
+      </c>
+      <c r="D49" s="1">
+        <f t="shared" si="11"/>
+        <v>500000000</v>
+      </c>
+      <c r="F49" s="13"/>
+      <c r="G49" s="13"/>
+      <c r="H49" s="13"/>
+      <c r="I49" s="13"/>
+      <c r="J49" s="13"/>
+      <c r="K49" s="13">
+        <v>250000000</v>
+      </c>
+      <c r="L49" s="13"/>
+      <c r="M49" s="13"/>
+      <c r="N49" s="13"/>
+      <c r="O49" s="13"/>
+      <c r="P49" s="13"/>
+      <c r="Q49" s="13"/>
+      <c r="R49" s="13"/>
+      <c r="S49" s="13"/>
+      <c r="T49" s="13">
+        <v>250000000</v>
+      </c>
+      <c r="U49" s="13"/>
+      <c r="V49" s="13"/>
+      <c r="W49" s="13"/>
+      <c r="X49" s="13"/>
+      <c r="Y49" s="13"/>
+    </row>
+    <row r="50" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B50" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C50">
+        <v>9048</v>
+      </c>
+      <c r="D50" s="1">
+        <f t="shared" si="11"/>
+        <v>5000000</v>
+      </c>
+      <c r="F50" s="13"/>
+      <c r="G50" s="13"/>
+      <c r="H50" s="13"/>
+      <c r="I50" s="13"/>
+      <c r="J50" s="13"/>
+      <c r="K50" s="13"/>
+      <c r="M50" s="13"/>
+      <c r="N50" s="13"/>
+      <c r="O50" s="13">
+        <v>2500000</v>
+      </c>
+      <c r="P50" s="13"/>
+      <c r="Q50" s="13"/>
+      <c r="R50" s="13"/>
+      <c r="S50" s="13"/>
+      <c r="T50" s="13"/>
+      <c r="U50" s="13">
+        <v>2500000</v>
+      </c>
+      <c r="V50" s="13"/>
+      <c r="W50" s="13"/>
+      <c r="X50" s="13"/>
+      <c r="Y50" s="13"/>
+    </row>
+    <row r="51" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B51" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C51">
+        <v>9049</v>
+      </c>
+      <c r="D51" s="1">
+        <f t="shared" si="11"/>
+        <v>5000000</v>
+      </c>
+      <c r="F51" s="13"/>
+      <c r="G51" s="13"/>
+      <c r="H51" s="13"/>
+      <c r="I51" s="13"/>
+      <c r="J51" s="13"/>
+      <c r="K51" s="13"/>
+      <c r="L51" s="13"/>
+      <c r="M51" s="13">
+        <v>2500000</v>
+      </c>
+      <c r="N51" s="13"/>
+      <c r="O51" s="13"/>
+      <c r="P51" s="13"/>
+      <c r="Q51" s="13"/>
+      <c r="R51" s="13"/>
+      <c r="S51" s="13"/>
+      <c r="T51" s="13"/>
+      <c r="U51" s="13"/>
+      <c r="V51" s="13">
+        <v>2500000</v>
+      </c>
+      <c r="W51" s="13"/>
+      <c r="X51" s="13"/>
+      <c r="Y51" s="13"/>
+    </row>
+    <row r="52" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B52" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C52">
+        <v>9062</v>
+      </c>
+      <c r="D52" s="1">
+        <f t="shared" si="11"/>
+        <v>3000000</v>
+      </c>
+      <c r="F52" s="13"/>
+      <c r="G52" s="13"/>
+      <c r="H52" s="13"/>
+      <c r="I52" s="13"/>
+      <c r="J52" s="13"/>
+      <c r="K52" s="13"/>
+      <c r="L52" s="13"/>
+      <c r="M52" s="13"/>
+      <c r="N52" s="13">
+        <v>1500000</v>
+      </c>
+      <c r="O52" s="13"/>
+      <c r="P52" s="13"/>
+      <c r="Q52" s="13"/>
+      <c r="R52" s="13"/>
+      <c r="S52" s="13"/>
+      <c r="T52" s="13"/>
+      <c r="U52" s="13"/>
+      <c r="V52" s="13"/>
+      <c r="W52" s="13">
+        <v>1500000</v>
+      </c>
+      <c r="X52" s="13"/>
+      <c r="Y52" s="13"/>
+    </row>
+    <row r="53" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B53" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C53">
+        <v>9064</v>
+      </c>
+      <c r="D53" s="1">
+        <f t="shared" si="11"/>
+        <v>1000000</v>
+      </c>
+      <c r="F53" s="13"/>
+      <c r="G53" s="13"/>
+      <c r="H53" s="13">
+        <v>500000</v>
+      </c>
+      <c r="I53" s="13"/>
+      <c r="J53" s="13"/>
+      <c r="K53" s="13"/>
+      <c r="L53" s="13"/>
+      <c r="M53" s="13"/>
+      <c r="N53" s="13"/>
+      <c r="P53" s="13"/>
+      <c r="Q53" s="13"/>
+      <c r="R53" s="13"/>
+      <c r="S53" s="13">
+        <v>500000</v>
+      </c>
+      <c r="T53" s="13"/>
+      <c r="U53" s="13"/>
+      <c r="V53" s="13"/>
+      <c r="W53" s="13"/>
+      <c r="Y53" s="13"/>
+    </row>
+    <row r="54" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B54" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="C54">
+        <v>9065</v>
+      </c>
+      <c r="D54" s="1">
+        <f t="shared" si="11"/>
+        <v>1000000</v>
+      </c>
+      <c r="F54" s="13"/>
+      <c r="G54" s="13"/>
+      <c r="H54" s="13"/>
+      <c r="I54" s="13"/>
+      <c r="J54" s="13"/>
+      <c r="K54" s="13"/>
+      <c r="L54" s="13">
+        <v>500000</v>
+      </c>
+      <c r="M54" s="13"/>
+      <c r="N54" s="13"/>
+      <c r="O54" s="13"/>
+      <c r="Q54" s="13"/>
+      <c r="R54" s="13"/>
+      <c r="S54" s="13"/>
+      <c r="T54" s="13"/>
+      <c r="U54" s="13"/>
+      <c r="V54" s="13"/>
+      <c r="W54" s="13"/>
+      <c r="X54" s="13"/>
+      <c r="Y54" s="13">
+        <v>500000</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>